--- a/Выгрузка/Standard Table Report 251124 ВНВ rev KDV.xlsx
+++ b/Выгрузка/Standard Table Report 251124 ВНВ rev KDV.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kopylov_dv\OneDrive\Обмен АТИ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$O$186</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2469,7 +2464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2477,23 +2472,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2654,7 +2650,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2708,7 +2704,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2758,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2812,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +2866,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3032,7 +3028,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3082,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3140,7 +3136,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3190,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3244,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3302,7 +3298,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3352,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3410,7 +3406,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3464,7 +3460,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3518,7 +3514,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +3568,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3626,7 +3622,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3680,7 +3676,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -3734,7 +3730,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -3788,7 +3784,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +3838,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3950,7 +3946,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -4004,7 +4000,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4058,7 +4054,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -4112,7 +4108,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -4166,7 +4162,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -4220,7 +4216,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -4382,7 +4378,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -4436,7 +4432,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -4490,7 +4486,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -4544,7 +4540,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -4652,7 +4648,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -4706,7 +4702,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4760,7 +4756,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -4814,7 +4810,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4868,7 +4864,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4922,7 +4918,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -4976,7 +4972,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -5138,7 +5134,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -5192,7 +5188,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -5246,7 +5242,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -5300,7 +5296,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -5354,7 +5350,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -5408,7 +5404,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -5462,7 +5458,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5516,7 +5512,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -5570,7 +5566,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -5624,7 +5620,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -5786,7 +5782,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -5840,7 +5836,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -5894,7 +5890,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -5948,7 +5944,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -6056,7 +6052,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -6110,7 +6106,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -6164,7 +6160,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -6218,7 +6214,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -6272,7 +6268,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -6326,7 +6322,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -6380,7 +6376,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -6434,7 +6430,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -6488,7 +6484,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -6596,7 +6592,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -6650,7 +6646,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6704,7 +6700,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -6812,7 +6808,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -6866,7 +6862,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -6920,7 +6916,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -6974,7 +6970,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -7028,7 +7024,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -7136,7 +7132,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7298,7 +7294,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -7352,7 +7348,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -7406,7 +7402,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -7460,7 +7456,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -7568,7 +7564,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -7622,7 +7618,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -7730,7 +7726,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -7784,7 +7780,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -7838,7 +7834,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7892,7 +7888,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -7946,7 +7942,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -8000,7 +7996,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -8054,7 +8050,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -8108,7 +8104,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -8162,7 +8158,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -8216,7 +8212,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -8270,7 +8266,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -8378,7 +8374,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -8432,7 +8428,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -8486,7 +8482,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -8540,7 +8536,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -8648,7 +8644,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -8756,7 +8752,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -8810,7 +8806,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8864,7 +8860,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -8918,7 +8914,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -8972,7 +8968,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -8992,6 +8988,9 @@
         <v>1500</v>
       </c>
       <c r="G121">
+        <v>652.6</v>
+      </c>
+      <c r="H121">
         <v>652.6</v>
       </c>
       <c r="I121" t="s">
@@ -9023,7 +9022,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -9671,7 +9670,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -9725,7 +9724,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -9779,7 +9778,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -9853,6 +9852,9 @@
         <v>1500</v>
       </c>
       <c r="G137">
+        <v>370.73</v>
+      </c>
+      <c r="H137">
         <v>370.73</v>
       </c>
       <c r="I137" t="s">
@@ -9884,7 +9886,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -9992,7 +9994,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -10046,7 +10048,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -10100,7 +10102,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -10154,7 +10156,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -10262,7 +10264,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -10316,7 +10318,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -10424,7 +10426,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -10532,7 +10534,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -10748,7 +10750,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -10768,6 +10770,9 @@
         <v>1500</v>
       </c>
       <c r="G154">
+        <v>447.08</v>
+      </c>
+      <c r="H154">
         <v>447.08</v>
       </c>
       <c r="I154" t="s">
@@ -10799,7 +10804,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -10853,7 +10858,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -10907,7 +10912,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -10927,6 +10932,9 @@
         <v>1500</v>
       </c>
       <c r="G157">
+        <v>264.25</v>
+      </c>
+      <c r="H157">
         <v>264.25</v>
       </c>
       <c r="I157" t="s">
@@ -10958,7 +10966,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -11012,7 +11020,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -11066,7 +11074,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -11120,7 +11128,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -11174,7 +11182,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -11228,7 +11236,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -11282,7 +11290,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -11336,7 +11344,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -11390,7 +11398,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -11444,7 +11452,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -11498,7 +11506,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -11552,7 +11560,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -11606,7 +11614,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -11660,7 +11668,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -11714,7 +11722,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -11768,7 +11776,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -11822,7 +11830,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -11876,7 +11884,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -11930,7 +11938,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -11984,7 +11992,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -12038,7 +12046,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -12092,7 +12100,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -12146,7 +12154,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -12200,7 +12208,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -12254,7 +12262,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -12308,7 +12316,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -12362,7 +12370,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -12416,7 +12424,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -12470,7 +12478,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -12525,7 +12533,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O186"/>
+  <autoFilter ref="A1:O186">
+    <filterColumn colId="7">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>